--- a/data1.xlsx
+++ b/data1.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wolfgang\Git\Project-TMI\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26C8F53-4C8C-46D5-A0B5-74DF8C5D4A4D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data1.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,16 +36,16 @@
     <t>ExecVar1</t>
   </si>
   <si>
-    <t>SimpleMillis</t>
+    <t>Brute-Force</t>
   </si>
   <si>
-    <t>Var1Millis</t>
+    <t>Variant 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -73,24 +79,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="18"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -109,11 +123,23 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SimpleMillis</c:v>
+                  <c:v>Brute-Force</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>data1.csv!$A$2:$A$41</c:f>
@@ -121,124 +147,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>302.0</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>332.0</c:v>
+                  <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>365.0</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>401.0</c:v>
+                  <c:v>401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>441.0</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>485.0</c:v>
+                  <c:v>485</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>533.0</c:v>
+                  <c:v>533</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>586.0</c:v>
+                  <c:v>586</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>644.0</c:v>
+                  <c:v>644</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>708.0</c:v>
+                  <c:v>708</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>778.0</c:v>
+                  <c:v>778</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>855.0</c:v>
+                  <c:v>855</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>940.0</c:v>
+                  <c:v>940</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1034.0</c:v>
+                  <c:v>1034</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1137.0</c:v>
+                  <c:v>1137</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1250.0</c:v>
+                  <c:v>1250</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1375.0</c:v>
+                  <c:v>1375</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1512.0</c:v>
+                  <c:v>1512</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1663.0</c:v>
+                  <c:v>1663</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1829.0</c:v>
+                  <c:v>1829</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011.0</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2212.0</c:v>
+                  <c:v>2212</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2433.0</c:v>
+                  <c:v>2433</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2676.0</c:v>
+                  <c:v>2676</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2943.0</c:v>
+                  <c:v>2943</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3237.0</c:v>
+                  <c:v>3237</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3560.0</c:v>
+                  <c:v>3560</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3916.0</c:v>
+                  <c:v>3916</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4307.0</c:v>
+                  <c:v>4307</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4737.0</c:v>
+                  <c:v>4737</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5210.0</c:v>
+                  <c:v>5210</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5731.0</c:v>
+                  <c:v>5731</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6304.0</c:v>
+                  <c:v>6304</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6934.0</c:v>
+                  <c:v>6934</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7627.0</c:v>
+                  <c:v>7627</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8389.0</c:v>
+                  <c:v>8389</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9227.0</c:v>
+                  <c:v>9227</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10149.0</c:v>
+                  <c:v>10149</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>11163.0</c:v>
+                  <c:v>11163</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>12279.0</c:v>
+                  <c:v>12279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -250,16 +276,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.505827</c:v>
+                  <c:v>0.50582700000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.635419</c:v>
+                  <c:v>0.63541899999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.726815</c:v>
+                  <c:v>0.72681499999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.887316</c:v>
+                  <c:v>0.88731599999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.335901</c:v>
@@ -268,19 +294,19 @@
                   <c:v>1.330721</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.745424</c:v>
+                  <c:v>1.7454240000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.98915</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.458897</c:v>
+                  <c:v>2.4588969999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.034933</c:v>
+                  <c:v>3.0349330000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.832931</c:v>
+                  <c:v>3.8329309999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4.453462</c:v>
@@ -289,90 +315,95 @@
                   <c:v>5.731503</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.313023</c:v>
+                  <c:v>7.3130230000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.965396</c:v>
+                  <c:v>8.9653960000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.293463</c:v>
+                  <c:v>10.293462999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>13.007139</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16.952249</c:v>
+                  <c:v>16.952248999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.123553</c:v>
+                  <c:v>21.123553000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28.181501</c:v>
+                  <c:v>28.181501000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33.54807</c:v>
+                  <c:v>33.548070000000003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39.611022</c:v>
+                  <c:v>39.611021999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>49.666589</c:v>
+                  <c:v>49.666589000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>59.640897</c:v>
+                  <c:v>59.640897000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>75.444911</c:v>
+                  <c:v>75.444911000000005</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>90.912215</c:v>
+                  <c:v>90.912215000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>117.491477</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>185.877381</c:v>
+                  <c:v>185.87738100000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>191.839185</c:v>
+                  <c:v>191.83918499999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>231.625869</c:v>
+                  <c:v>231.62586899999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>268.895405</c:v>
+                  <c:v>268.89540499999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>330.210912</c:v>
+                  <c:v>330.21091200000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>417.356355</c:v>
+                  <c:v>417.35635500000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>550.330075</c:v>
+                  <c:v>550.33007499999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>630.897689</c:v>
+                  <c:v>630.89768900000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>762.846816</c:v>
+                  <c:v>762.84681599999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>938.9716</c:v>
+                  <c:v>938.97159999999997</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1197.056091</c:v>
+                  <c:v>1197.0560909999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1505.989088</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1941.115854</c:v>
+                  <c:v>1941.1158539999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF7D-4161-8575-5D85D8BF1EC6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -383,11 +414,23 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Var1Millis</c:v>
+                  <c:v>Variant 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>data1.csv!$A$2:$A$41</c:f>
@@ -395,124 +438,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>302.0</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>332.0</c:v>
+                  <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>365.0</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>401.0</c:v>
+                  <c:v>401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>441.0</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>485.0</c:v>
+                  <c:v>485</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>533.0</c:v>
+                  <c:v>533</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>586.0</c:v>
+                  <c:v>586</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>644.0</c:v>
+                  <c:v>644</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>708.0</c:v>
+                  <c:v>708</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>778.0</c:v>
+                  <c:v>778</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>855.0</c:v>
+                  <c:v>855</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>940.0</c:v>
+                  <c:v>940</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1034.0</c:v>
+                  <c:v>1034</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1137.0</c:v>
+                  <c:v>1137</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1250.0</c:v>
+                  <c:v>1250</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1375.0</c:v>
+                  <c:v>1375</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1512.0</c:v>
+                  <c:v>1512</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1663.0</c:v>
+                  <c:v>1663</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1829.0</c:v>
+                  <c:v>1829</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011.0</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2212.0</c:v>
+                  <c:v>2212</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2433.0</c:v>
+                  <c:v>2433</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2676.0</c:v>
+                  <c:v>2676</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2943.0</c:v>
+                  <c:v>2943</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3237.0</c:v>
+                  <c:v>3237</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3560.0</c:v>
+                  <c:v>3560</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3916.0</c:v>
+                  <c:v>3916</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4307.0</c:v>
+                  <c:v>4307</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4737.0</c:v>
+                  <c:v>4737</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5210.0</c:v>
+                  <c:v>5210</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5731.0</c:v>
+                  <c:v>5731</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6304.0</c:v>
+                  <c:v>6304</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6934.0</c:v>
+                  <c:v>6934</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7627.0</c:v>
+                  <c:v>7627</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8389.0</c:v>
+                  <c:v>8389</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9227.0</c:v>
+                  <c:v>9227</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10149.0</c:v>
+                  <c:v>10149</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>11163.0</c:v>
+                  <c:v>11163</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>12279.0</c:v>
+                  <c:v>12279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,76 +567,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.010363</c:v>
+                  <c:v>1.0363000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.009962</c:v>
+                  <c:v>9.9620000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.010851</c:v>
+                  <c:v>1.0851E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.013428</c:v>
+                  <c:v>1.3428000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.014017</c:v>
+                  <c:v>1.4017E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.014336</c:v>
+                  <c:v>1.4336E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.017206</c:v>
+                  <c:v>1.7205999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.017855</c:v>
+                  <c:v>1.7854999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.020552</c:v>
+                  <c:v>2.0552000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.021221</c:v>
+                  <c:v>2.1221E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.023971</c:v>
+                  <c:v>2.3970999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.02601</c:v>
+                  <c:v>2.6009999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.034835</c:v>
+                  <c:v>3.4834999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.032583</c:v>
+                  <c:v>3.2583000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.044241</c:v>
+                  <c:v>4.4241000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.039661</c:v>
+                  <c:v>3.9661000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.04506</c:v>
+                  <c:v>4.5060000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.048909</c:v>
+                  <c:v>4.8909000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.069468</c:v>
+                  <c:v>6.9468000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.062529</c:v>
+                  <c:v>6.2529000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.074771</c:v>
+                  <c:v>7.4771000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.072719</c:v>
+                  <c:v>7.2719000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.08357</c:v>
+                  <c:v>8.3570000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.092562</c:v>
+                  <c:v>9.2562000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.105528</c:v>
@@ -602,54 +645,58 @@
                   <c:v>0.114311</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.208215</c:v>
+                  <c:v>0.20821500000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.161042</c:v>
+                  <c:v>0.16104199999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.176605</c:v>
+                  <c:v>0.17660500000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.183325</c:v>
+                  <c:v>0.18332499999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.205956</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.231555</c:v>
+                  <c:v>0.23155500000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.295973</c:v>
+                  <c:v>0.29597299999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.296652</c:v>
+                  <c:v>0.29665200000000003</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.321394</c:v>
+                  <c:v>0.32139400000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.36707</c:v>
+                  <c:v>0.36707000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.40816</c:v>
+                  <c:v>0.40816000000000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.461547</c:v>
+                  <c:v>0.46154699999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.550967</c:v>
+                  <c:v>0.55096699999999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.632398</c:v>
+                  <c:v>0.63239800000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BF7D-4161-8575-5D85D8BF1EC6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -657,7 +704,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="-2147052168"/>
         <c:axId val="2137313704"/>
@@ -669,10 +715,103 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>aantal</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-BE" baseline="0"/>
+                  <a:t> punten</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="2137313704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -683,36 +822,750 @@
       <c:valAx>
         <c:axId val="2137313704"/>
         <c:scaling>
-          <c:logBase val="2.0"/>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>tijd</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-BE" baseline="0"/>
+                  <a:t> in milliseconden</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="-2147052168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -732,7 +1585,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1071,19 +1930,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E41"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1100,7 +1959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>302</v>
       </c>
@@ -1119,7 +1978,7 @@
         <v>1.0363000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>332</v>
       </c>
@@ -1138,7 +1997,7 @@
         <v>9.9620000000000004E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>365</v>
       </c>
@@ -1157,7 +2016,7 @@
         <v>1.0851E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>401</v>
       </c>
@@ -1176,7 +2035,7 @@
         <v>1.3428000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>441</v>
       </c>
@@ -1195,7 +2054,7 @@
         <v>1.4017E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>485</v>
       </c>
@@ -1214,7 +2073,7 @@
         <v>1.4336E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>533</v>
       </c>
@@ -1233,7 +2092,7 @@
         <v>1.7205999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>586</v>
       </c>
@@ -1252,7 +2111,7 @@
         <v>1.7854999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>644</v>
       </c>
@@ -1271,7 +2130,7 @@
         <v>2.0552000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>708</v>
       </c>
@@ -1290,7 +2149,7 @@
         <v>2.1221E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>778</v>
       </c>
@@ -1309,7 +2168,7 @@
         <v>2.3970999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>855</v>
       </c>
@@ -1328,7 +2187,7 @@
         <v>2.6009999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>940</v>
       </c>
@@ -1347,7 +2206,7 @@
         <v>3.4834999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1034</v>
       </c>
@@ -1366,7 +2225,7 @@
         <v>3.2583000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1137</v>
       </c>
@@ -1385,7 +2244,7 @@
         <v>4.4241000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1250</v>
       </c>
@@ -1404,7 +2263,7 @@
         <v>3.9661000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1375</v>
       </c>
@@ -1423,7 +2282,7 @@
         <v>4.5060000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1512</v>
       </c>
@@ -1442,7 +2301,7 @@
         <v>4.8909000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1663</v>
       </c>
@@ -1461,7 +2320,7 @@
         <v>6.9468000000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1829</v>
       </c>
@@ -1480,7 +2339,7 @@
         <v>6.2529000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2011</v>
       </c>
@@ -1499,7 +2358,7 @@
         <v>7.4771000000000004E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2212</v>
       </c>
@@ -1518,7 +2377,7 @@
         <v>7.2719000000000006E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2433</v>
       </c>
@@ -1537,7 +2396,7 @@
         <v>8.3570000000000005E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2676</v>
       </c>
@@ -1556,7 +2415,7 @@
         <v>9.2562000000000005E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2943</v>
       </c>
@@ -1575,7 +2434,7 @@
         <v>0.105528</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3237</v>
       </c>
@@ -1594,7 +2453,7 @@
         <v>0.114311</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3560</v>
       </c>
@@ -1613,7 +2472,7 @@
         <v>0.20821500000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3916</v>
       </c>
@@ -1632,7 +2491,7 @@
         <v>0.16104199999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4307</v>
       </c>
@@ -1651,7 +2510,7 @@
         <v>0.17660500000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4737</v>
       </c>
@@ -1670,7 +2529,7 @@
         <v>0.18332499999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5210</v>
       </c>
@@ -1689,7 +2548,7 @@
         <v>0.205956</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5731</v>
       </c>
@@ -1708,7 +2567,7 @@
         <v>0.23155500000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>6304</v>
       </c>
@@ -1727,7 +2586,7 @@
         <v>0.29597299999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>6934</v>
       </c>
@@ -1746,7 +2605,7 @@
         <v>0.29665200000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>7627</v>
       </c>
@@ -1765,7 +2624,7 @@
         <v>0.32139400000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>8389</v>
       </c>
@@ -1784,7 +2643,7 @@
         <v>0.36707000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>9227</v>
       </c>
@@ -1803,7 +2662,7 @@
         <v>0.40816000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>10149</v>
       </c>
@@ -1822,7 +2681,7 @@
         <v>0.46154699999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>11163</v>
       </c>
@@ -1841,7 +2700,7 @@
         <v>0.55096699999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>12279</v>
       </c>

--- a/data1.xlsx
+++ b/data1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wolfgang\Git\Project-TMI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9B3A99-42E7-4901-96D0-AC1EC4E1E9A8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F46B3E3-C030-44FE-BD99-D5A5F7EA1C6B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>#Points</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Variant 1</t>
+  </si>
+  <si>
+    <t>O()</t>
   </si>
 </sst>
 </file>
@@ -4461,16 +4464,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>41910</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>346710</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4497,16 +4500,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>377190</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>415290</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>72390</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>110490</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4533,14 +4536,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
@@ -4867,15 +4870,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4900,8 +4903,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>250</v>
       </c>
@@ -4928,8 +4934,12 @@
         <f>D2/1000000</f>
         <v>0.35505700000000001</v>
       </c>
+      <c r="I2">
+        <f>(A2*F2)</f>
+        <v>324.76666749999998</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>275</v>
       </c>
@@ -4956,8 +4966,12 @@
         <f t="shared" ref="H3:H43" si="1">D3/1000000</f>
         <v>0.41091299999999997</v>
       </c>
+      <c r="I3">
+        <f>(A3*F3)</f>
+        <v>332.50000025000003</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>302</v>
       </c>
@@ -4984,8 +4998,12 @@
         <f t="shared" si="1"/>
         <v>0.24276500000000001</v>
       </c>
+      <c r="I4">
+        <f t="shared" ref="I3:I43" si="2">A4*F4</f>
+        <v>363.90000077999997</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>332</v>
       </c>
@@ -5012,8 +5030,12 @@
         <f t="shared" si="1"/>
         <v>0.152112</v>
       </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>449.13333168000003</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>365</v>
       </c>
@@ -5040,8 +5062,12 @@
         <f t="shared" si="1"/>
         <v>0.12515100000000001</v>
       </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>522.63333475000002</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>401</v>
       </c>
@@ -5068,8 +5094,12 @@
         <f t="shared" si="1"/>
         <v>0.13573399999999999</v>
       </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>506.76666526999998</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>441</v>
       </c>
@@ -5096,8 +5126,12 @@
         <f t="shared" si="1"/>
         <v>7.3326000000000002E-2</v>
       </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>547.33333347000007</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>485</v>
       </c>
@@ -5124,8 +5158,12 @@
         <f t="shared" si="1"/>
         <v>1.7624999999999998E-2</v>
       </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>665.0666678</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>533</v>
       </c>
@@ -5152,8 +5190,12 @@
         <f t="shared" si="1"/>
         <v>2.6914E-2</v>
       </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>721.63333176999993</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>586</v>
       </c>
@@ -5180,8 +5222,12 @@
         <f t="shared" si="1"/>
         <v>2.5628999999999999E-2</v>
       </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>799.36666684000011</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>644</v>
       </c>
@@ -5208,8 +5254,12 @@
         <f t="shared" si="1"/>
         <v>2.0601000000000001E-2</v>
       </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>786.06666404000009</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>708</v>
       </c>
@@ -5236,8 +5286,12 @@
         <f t="shared" si="1"/>
         <v>2.852E-2</v>
       </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>964.3000002</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>778</v>
       </c>
@@ -5264,8 +5318,12 @@
         <f t="shared" si="1"/>
         <v>3.5881999999999997E-2</v>
       </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>904.46666968000011</v>
+      </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>855</v>
       </c>
@@ -5292,8 +5350,12 @@
         <f t="shared" si="1"/>
         <v>5.5400999999999999E-2</v>
       </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>1123.0333344000001</v>
+      </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>940</v>
       </c>
@@ -5320,8 +5382,12 @@
         <f t="shared" si="1"/>
         <v>4.7427999999999998E-2</v>
       </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>1343.9333314</v>
+      </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1034</v>
       </c>
@@ -5348,8 +5414,12 @@
         <f t="shared" si="1"/>
         <v>6.0650999999999997E-2</v>
       </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>1461.2666675200001</v>
+      </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1137</v>
       </c>
@@ -5376,8 +5446,12 @@
         <f t="shared" si="1"/>
         <v>4.9759999999999999E-2</v>
       </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>1573.59999552</v>
+      </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1250</v>
       </c>
@@ -5404,8 +5478,12 @@
         <f t="shared" si="1"/>
         <v>4.3681999999999999E-2</v>
       </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>1569.1333374999999</v>
+      </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1375</v>
       </c>
@@ -5432,8 +5510,12 @@
         <f t="shared" si="1"/>
         <v>5.1318999999999997E-2</v>
       </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>1756.4000025</v>
+      </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1512</v>
       </c>
@@ -5460,8 +5542,12 @@
         <f t="shared" si="1"/>
         <v>4.9453999999999998E-2</v>
       </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>2035.9333259999999</v>
+      </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1663</v>
       </c>
@@ -5488,8 +5574,12 @@
         <f t="shared" si="1"/>
         <v>6.0425E-2</v>
       </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>2612.2333322499999</v>
+      </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1829</v>
       </c>
@@ -5516,8 +5606,12 @@
         <f t="shared" si="1"/>
         <v>7.1682999999999997E-2</v>
       </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>2463.4333324700001</v>
+      </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2011</v>
       </c>
@@ -5544,8 +5638,12 @@
         <f t="shared" si="1"/>
         <v>7.5147000000000005E-2</v>
       </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>2599.6333345800003</v>
+      </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2212</v>
       </c>
@@ -5572,8 +5670,12 @@
         <f t="shared" si="1"/>
         <v>8.7424000000000002E-2</v>
       </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>2952.3333288400004</v>
+      </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2433</v>
       </c>
@@ -5600,8 +5702,12 @@
         <f t="shared" si="1"/>
         <v>0.23063900000000001</v>
       </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>3334.9333425600003</v>
+      </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2676</v>
       </c>
@@ -5628,8 +5734,12 @@
         <f t="shared" si="1"/>
         <v>0.184751</v>
       </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>3629.7999899999995</v>
+      </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2943</v>
       </c>
@@ -5656,8 +5766,12 @@
         <f t="shared" si="1"/>
         <v>0.14707300000000001</v>
       </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>4371.0666762599994</v>
+      </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3237</v>
       </c>
@@ -5684,8 +5798,12 @@
         <f t="shared" si="1"/>
         <v>0.15421499999999999</v>
       </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>4730.0666708099998</v>
+      </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3560</v>
       </c>
@@ -5712,8 +5830,12 @@
         <f t="shared" si="1"/>
         <v>0.171983</v>
       </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>5108.4666779999998</v>
+      </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3916</v>
       </c>
@@ -5740,8 +5862,12 @@
         <f t="shared" si="1"/>
         <v>0.20955799999999999</v>
       </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>5841.63332016</v>
+      </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4307</v>
       </c>
@@ -5768,8 +5894,12 @@
         <f t="shared" si="1"/>
         <v>0.24391299999999999</v>
       </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>6419.4333149100003</v>
+      </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4737</v>
       </c>
@@ -5796,8 +5926,12 @@
         <f t="shared" si="1"/>
         <v>0.237344</v>
       </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>5754.6666684600004</v>
+      </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>5210</v>
       </c>
@@ -5824,8 +5958,12 @@
         <f t="shared" si="1"/>
         <v>0.27165699999999998</v>
       </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>7544.0666623999996</v>
+      </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>5731</v>
       </c>
@@ -5852,8 +5990,12 @@
         <f t="shared" si="1"/>
         <v>0.25484499999999999</v>
       </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>7679.7333066299998</v>
+      </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>6304</v>
       </c>
@@ -5880,8 +6022,12 @@
         <f t="shared" si="1"/>
         <v>0.328378</v>
       </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>7198.5000281599996</v>
+      </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6934</v>
       </c>
@@ -5908,8 +6054,12 @@
         <f t="shared" si="1"/>
         <v>0.34202399999999999</v>
       </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>9735.533341639999</v>
+      </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>7627</v>
       </c>
@@ -5936,8 +6086,12 @@
         <f t="shared" si="1"/>
         <v>0.47933300000000001</v>
       </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>10128.999977699999</v>
+      </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>8389</v>
       </c>
@@ -5964,8 +6118,12 @@
         <f t="shared" si="1"/>
         <v>0.39872999999999997</v>
       </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>10365.66668178</v>
+      </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>9227</v>
       </c>
@@ -5992,8 +6150,12 @@
         <f t="shared" si="1"/>
         <v>0.57048299999999996</v>
       </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>13048.833365160001</v>
+      </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>10149</v>
       </c>
@@ -6020,8 +6182,12 @@
         <f t="shared" si="1"/>
         <v>0.61323799999999995</v>
       </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>12162.400027920001</v>
+      </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>11163</v>
       </c>
@@ -6048,8 +6214,12 @@
         <f t="shared" si="1"/>
         <v>0.80820899999999996</v>
       </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>14336.76670701</v>
+      </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>12279</v>
       </c>
@@ -6075,6 +6245,10 @@
       <c r="H43">
         <f t="shared" si="1"/>
         <v>0.884544</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>15220.299994950001</v>
       </c>
     </row>
   </sheetData>
